--- a/data/trans_orig/P1411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>42790</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30852</v>
+        <v>31255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58442</v>
+        <v>59001</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04390319465720329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03165456035890641</v>
+        <v>0.03206864905266121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05996268673390495</v>
+        <v>0.06053594396410692</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -763,19 +763,19 @@
         <v>27219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18047</v>
+        <v>17957</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38233</v>
+        <v>39368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02036436570839533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01350200840914564</v>
+        <v>0.01343474164838388</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0286046989163586</v>
+        <v>0.02945376967685411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -784,19 +784,19 @@
         <v>70009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54648</v>
+        <v>53634</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90742</v>
+        <v>88106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03029054758054724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02364412642814777</v>
+        <v>0.02320558479481706</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03926097192738237</v>
+        <v>0.03812052820376639</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>931853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>916201</v>
+        <v>915642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>943791</v>
+        <v>943388</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9560968053427967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.940037313266095</v>
+        <v>0.939464056035893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9683454396410934</v>
+        <v>0.9679313509473387</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1220</v>
@@ -834,19 +834,19 @@
         <v>1309395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1298381</v>
+        <v>1297246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1318567</v>
+        <v>1318657</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9796356342916047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9713953010836414</v>
+        <v>0.9705462303231459</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9864979915908542</v>
+        <v>0.986565258351616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2090</v>
@@ -855,19 +855,19 @@
         <v>2241248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2220515</v>
+        <v>2223151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2256609</v>
+        <v>2257623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9697094524194527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9607390280726177</v>
+        <v>0.9618794717962336</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9763558735718527</v>
+        <v>0.9767944152051828</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>22745</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15087</v>
+        <v>14046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34004</v>
+        <v>34068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0115814125294647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007682126110385464</v>
+        <v>0.007151899817968719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01731389890027104</v>
+        <v>0.01734670153767588</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -980,19 +980,19 @@
         <v>8660</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4097</v>
+        <v>4238</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17025</v>
+        <v>16310</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004935740078166262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002334969425910887</v>
+        <v>0.002415299296189333</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009703268537629395</v>
+        <v>0.009295371956658149</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -1001,19 +1001,19 @@
         <v>31406</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21290</v>
+        <v>21180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44748</v>
+        <v>43710</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008445661868426671</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005725323983074779</v>
+        <v>0.005695815114284393</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01203360690471429</v>
+        <v>0.0117545172945736</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1941212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1929953</v>
+        <v>1929889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1948870</v>
+        <v>1949911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9884185874705353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.982686101099729</v>
+        <v>0.9826532984623242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9923178738896146</v>
+        <v>0.9928481001820314</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1625</v>
@@ -1051,19 +1051,19 @@
         <v>1745932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1737567</v>
+        <v>1738282</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1750495</v>
+        <v>1750354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9950642599218338</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9902967314623706</v>
+        <v>0.9907046280433418</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976650305740891</v>
+        <v>0.9975847007038107</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3460</v>
@@ -1072,19 +1072,19 @@
         <v>3687143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3673801</v>
+        <v>3674839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3697259</v>
+        <v>3697369</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9915543381315733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9879663930952857</v>
+        <v>0.9882454827054264</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9942746760169251</v>
+        <v>0.9943041848857155</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>5101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11395</v>
+        <v>11160</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01060126245976318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004133556999062684</v>
+        <v>0.004120477552961922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02368221685464549</v>
+        <v>0.02319215992970686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8133</v>
+        <v>7686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005007531064205733</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01773426779393173</v>
+        <v>0.01675770094220249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1218,19 +1218,19 @@
         <v>7398</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3128</v>
+        <v>3082</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14756</v>
+        <v>15237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00787150621071755</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003328051717260807</v>
+        <v>0.003279656052456194</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0157004740921411</v>
+        <v>0.01621307988848329</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>476080</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469786</v>
+        <v>470021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479192</v>
+        <v>479198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9893987375402368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9763177831453544</v>
+        <v>0.9768078400702932</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9958664430009373</v>
+        <v>0.9958795224470381</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>410</v>
@@ -1268,7 +1268,7 @@
         <v>456334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>450498</v>
+        <v>450945</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>458631</v>
@@ -1277,7 +1277,7 @@
         <v>0.9949924689357943</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9822657322060685</v>
+        <v>0.9832422990577977</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1289,19 +1289,19 @@
         <v>932415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>925057</v>
+        <v>924576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>936685</v>
+        <v>936731</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9921284937892825</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9842995259078585</v>
+        <v>0.9837869201115166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9966719482827392</v>
+        <v>0.9967203439475437</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>70636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55180</v>
+        <v>55831</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90296</v>
+        <v>90416</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02065525710995265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01613544766205897</v>
+        <v>0.01632597951193373</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02640389178719803</v>
+        <v>0.02643911434027693</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1414,19 +1414,19 @@
         <v>38176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27716</v>
+        <v>26570</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53025</v>
+        <v>52314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01075432830599686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007807783494942757</v>
+        <v>0.007484775104530739</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01493723995770046</v>
+        <v>0.01473694129787071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1435,19 +1435,19 @@
         <v>108813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87678</v>
+        <v>88120</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132114</v>
+        <v>133131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01561241567468846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01257997907305142</v>
+        <v>0.0126433955476503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01895572136404063</v>
+        <v>0.01910166003559329</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3349146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3329486</v>
+        <v>3329366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3364602</v>
+        <v>3363951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9793447428900474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.973596108212802</v>
+        <v>0.973560885659723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9838645523379409</v>
+        <v>0.9836740204880662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3255</v>
@@ -1485,19 +1485,19 @@
         <v>3511661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3496812</v>
+        <v>3497523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3522121</v>
+        <v>3523267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9892456716940031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9850627600422996</v>
+        <v>0.9852630587021293</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9921922165050573</v>
+        <v>0.9925152248954693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6393</v>
@@ -1506,19 +1506,19 @@
         <v>6860806</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6837505</v>
+        <v>6836488</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6881941</v>
+        <v>6881499</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9843875843253116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9810442786359592</v>
+        <v>0.9808983399644067</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9874200209269485</v>
+        <v>0.9873566044523494</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>34047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22936</v>
+        <v>24672</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45437</v>
+        <v>47259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04513393197159534</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03040445124576497</v>
+        <v>0.03270647861302335</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06023346047143667</v>
+        <v>0.06264831664702353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -1870,19 +1870,19 @@
         <v>32074</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21756</v>
+        <v>21321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45080</v>
+        <v>45386</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03224653610225954</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02187234435320076</v>
+        <v>0.02143565654807545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04532195844076257</v>
+        <v>0.0456299858134484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -1891,19 +1891,19 @@
         <v>66121</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51833</v>
+        <v>51399</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83819</v>
+        <v>83455</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03780487053035415</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02963568083358966</v>
+        <v>0.02938734529604517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04792369300369154</v>
+        <v>0.04771587121715274</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>720300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>708910</v>
+        <v>707088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>731411</v>
+        <v>729675</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9548660680284047</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9397665395285633</v>
+        <v>0.9373516833529765</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.969595548754235</v>
+        <v>0.9672935213869766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>864</v>
@@ -1941,19 +1941,19 @@
         <v>962586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>949580</v>
+        <v>949274</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>972904</v>
+        <v>973339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9677534638977404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9546780415592372</v>
+        <v>0.9543700141865515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9781276556467993</v>
+        <v>0.9785643434519246</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1590</v>
@@ -1962,19 +1962,19 @@
         <v>1682886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1665188</v>
+        <v>1665552</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1697174</v>
+        <v>1697608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9621951294696458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9520763069963084</v>
+        <v>0.9522841287828472</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9703643191664103</v>
+        <v>0.9706126547039549</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>30871</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20950</v>
+        <v>21920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44456</v>
+        <v>44853</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01486783111402544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01008983578499243</v>
+        <v>0.01055691056248134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0214101272312215</v>
+        <v>0.0216013861940152</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2087,19 +2087,19 @@
         <v>9183</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4315</v>
+        <v>4366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17824</v>
+        <v>18310</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004618489433090333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00217014744466238</v>
+        <v>0.002195702830360332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008964428553522088</v>
+        <v>0.009209040083303786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -2108,19 +2108,19 @@
         <v>40054</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29092</v>
+        <v>28635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56359</v>
+        <v>54939</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009854215895010461</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007157327434260662</v>
+        <v>0.007044748726249225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0138654859908124</v>
+        <v>0.01351622405263511</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2045514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2031929</v>
+        <v>2031532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2055435</v>
+        <v>2054465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9851321688859745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9785898727687784</v>
+        <v>0.9783986138059848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9899101642150074</v>
+        <v>0.9894430894375186</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1900</v>
@@ -2158,19 +2158,19 @@
         <v>1979117</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1970476</v>
+        <v>1969990</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1983985</v>
+        <v>1983934</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9953815105669097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.991035571446478</v>
+        <v>0.9907909599166964</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9978298525553377</v>
+        <v>0.9978042971696397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3823</v>
@@ -2179,19 +2179,19 @@
         <v>4024631</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4008326</v>
+        <v>4009746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4035593</v>
+        <v>4036050</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9901457841049895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9861345140091876</v>
+        <v>0.9864837759473649</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928426725657393</v>
+        <v>0.9929552512737507</v>
       </c>
     </row>
     <row r="9">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6491</v>
+        <v>6580</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003394741713674692</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01186926058555382</v>
+        <v>0.01203120699949365</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2304,19 +2304,19 @@
         <v>3294</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9294</v>
+        <v>8941</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005997747543266051</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001824181428664608</v>
+        <v>0.001835077630381423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01692375771427241</v>
+        <v>0.0162818027056367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2325,19 +2325,19 @@
         <v>5150</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1871</v>
+        <v>1936</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10659</v>
+        <v>11994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004698921364633206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00170741890537329</v>
+        <v>0.001766505735691966</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009725292666850745</v>
+        <v>0.01094296227891036</v>
       </c>
     </row>
     <row r="11">
@@ -2354,7 +2354,7 @@
         <v>545029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540395</v>
+        <v>540306</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -2363,7 +2363,7 @@
         <v>0.9966052582863253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9881307394144468</v>
+        <v>0.9879687930005066</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2375,19 +2375,19 @@
         <v>545846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>539846</v>
+        <v>540199</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548138</v>
+        <v>548132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9940022524567339</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9830762422857283</v>
+        <v>0.9837181972943634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9981758185713354</v>
+        <v>0.9981649223696185</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1022</v>
@@ -2396,19 +2396,19 @@
         <v>1090877</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1085368</v>
+        <v>1084033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1094156</v>
+        <v>1094091</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9953010786353668</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9902747073331493</v>
+        <v>0.9890570377210894</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9982925810946267</v>
+        <v>0.9982334942643081</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>66775</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51212</v>
+        <v>51713</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85407</v>
+        <v>83627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0197697062412197</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01516206601613871</v>
+        <v>0.01531052565876245</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02528603359867603</v>
+        <v>0.02475921707072675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -2521,19 +2521,19 @@
         <v>44551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33485</v>
+        <v>32648</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62143</v>
+        <v>61827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01261314413625017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009480265292465</v>
+        <v>0.00924319982467417</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01759368220319183</v>
+        <v>0.01750439871397823</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -2542,19 +2542,19 @@
         <v>111325</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92731</v>
+        <v>91569</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134735</v>
+        <v>132927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01611142448835165</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0134203696583404</v>
+        <v>0.01325218999161515</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01949931362309591</v>
+        <v>0.01923763692671979</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3310843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3292211</v>
+        <v>3293991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3326406</v>
+        <v>3325905</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9802302937587803</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9747139664013239</v>
+        <v>0.9752407829292732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9848379339838611</v>
+        <v>0.9846894743412375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3287</v>
@@ -2592,19 +2592,19 @@
         <v>3487549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3469957</v>
+        <v>3470273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3498615</v>
+        <v>3499452</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9873868558637499</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9824063177968076</v>
+        <v>0.9824956012860218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.990519734707535</v>
+        <v>0.9907568001753259</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6435</v>
@@ -2613,19 +2613,19 @@
         <v>6798393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6774983</v>
+        <v>6776791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6816987</v>
+        <v>6818149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9838885755116483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9805006863769041</v>
+        <v>0.9807623630732801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9865796303416596</v>
+        <v>0.9867478100083849</v>
       </c>
     </row>
     <row r="15">
